--- a/docs/output.xlsx
+++ b/docs/output.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\opensrc\intel-gitlab\shaoyuta\glibc-result\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\opensrc\github.com\shaoyuta\glibc-result\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A845A5F8-4F2C-4DB6-908F-9F2D977739B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932C3B8-151C-49FA-991E-0D35B3E7AC1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" firstSheet="2" activeTab="4" xr2:uid="{BE87CDA5-0591-43E6-8C0F-D5EBABEA6366}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{BE87CDA5-0591-43E6-8C0F-D5EBABEA6366}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,6 @@
     <definedName name="_xlchart.v1.2" hidden="1">Summary!$J$10:$J$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2953,6 +2952,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2971,9 +2973,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -10186,7 +10185,7 @@
       <c r="A19" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10194,25 +10193,25 @@
       <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="36"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="35"/>
+      <c r="B21" s="36"/>
     </row>
     <row r="22" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="35"/>
+      <c r="B22" s="36"/>
     </row>
     <row r="23" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="36" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10220,13 +10219,13 @@
       <c r="A24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="36"/>
     </row>
     <row r="25" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="36"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -10240,7 +10239,7 @@
       <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="36" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10248,13 +10247,13 @@
       <c r="A28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="35"/>
+      <c r="B28" s="36"/>
     </row>
     <row r="29" spans="1:3" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="1" t="s">
         <v>40</v>
       </c>
@@ -10524,7 +10523,7 @@
       <c r="A2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>377</v>
       </c>
       <c r="C2" s="3" t="s">
@@ -10535,7 +10534,7 @@
       <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="40"/>
       <c r="C3" s="3" t="s">
         <v>64</v>
       </c>
@@ -10544,7 +10543,7 @@
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="40"/>
       <c r="C4" s="3" t="s">
         <v>83</v>
       </c>
@@ -10553,7 +10552,7 @@
       <c r="A5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="40"/>
       <c r="C5" s="3" t="s">
         <v>65</v>
       </c>
@@ -10562,7 +10561,7 @@
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3" t="s">
         <v>63</v>
       </c>
@@ -10571,19 +10570,19 @@
       <c r="A7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="40"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B8" s="39"/>
+      <c r="B8" s="40"/>
     </row>
     <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -10592,13 +10591,13 @@
       <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="39"/>
+      <c r="B10" s="40"/>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="40"/>
       <c r="C11" s="3" t="s">
         <v>81</v>
       </c>
@@ -10607,7 +10606,7 @@
       <c r="A12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B12" s="39"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="3" t="s">
         <v>82</v>
       </c>
@@ -10616,7 +10615,7 @@
       <c r="A13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="39"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="3" t="s">
         <v>67</v>
       </c>
@@ -10625,7 +10624,7 @@
       <c r="A14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="39"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="3" t="s">
         <v>56</v>
       </c>
@@ -10634,7 +10633,7 @@
       <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="39"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="3" t="s">
         <v>80</v>
       </c>
@@ -10643,7 +10642,7 @@
       <c r="A16" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="3" t="s">
         <v>68</v>
       </c>
@@ -10652,7 +10651,7 @@
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="39"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="3" t="s">
         <v>69</v>
       </c>
@@ -10661,37 +10660,37 @@
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="39"/>
+      <c r="B18" s="40"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="40"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="40"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="39"/>
+      <c r="B22" s="40"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="39"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="3" t="s">
         <v>72</v>
       </c>
@@ -10700,13 +10699,13 @@
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="39"/>
+      <c r="B24" s="40"/>
     </row>
     <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="39"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="3" t="s">
         <v>71</v>
       </c>
@@ -10715,7 +10714,7 @@
       <c r="A26" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="3" t="s">
         <v>70</v>
       </c>
@@ -10724,13 +10723,13 @@
       <c r="A27" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="39"/>
+      <c r="B27" s="40"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B28" s="39"/>
+      <c r="B28" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10758,39 +10757,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10817,7 +10816,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10825,28 +10824,28 @@
       <c r="A2" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10884,7 +10883,7 @@
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="36" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10892,25 +10891,25 @@
       <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="36" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10918,13 +10917,13 @@
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -10938,7 +10937,7 @@
       <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="36" t="s">
         <v>78</v>
       </c>
     </row>
@@ -10946,13 +10945,13 @@
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
     </row>
     <row r="13" spans="1:2" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
@@ -11021,14 +11020,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="36" t="s">
         <v>423</v>
       </c>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
       <c r="K1" t="s">
         <v>421</v>
       </c>
@@ -11037,146 +11036,146 @@
       </c>
     </row>
     <row r="2" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="K2" s="35" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="K2" s="36" t="s">
         <v>419</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="L2" s="36" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="3" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
     </row>
     <row r="4" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
     </row>
     <row r="5" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
     </row>
     <row r="6" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D6" s="40"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
     </row>
     <row r="7" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D7" s="40"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="40"/>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
     </row>
     <row r="8" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
     </row>
     <row r="9" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="40"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
     </row>
     <row r="10" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
     </row>
     <row r="11" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
     </row>
     <row r="12" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
     </row>
     <row r="13" spans="4:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="15" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="40" t="s">
         <v>422</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
     </row>
     <row r="16" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
       <c r="K16" t="s">
         <v>424</v>
       </c>
@@ -11185,12 +11184,12 @@
       </c>
     </row>
     <row r="17" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
       <c r="K17" t="s">
         <v>425</v>
       </c>
@@ -11199,12 +11198,12 @@
       </c>
     </row>
     <row r="18" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
       <c r="K18" t="s">
         <v>426</v>
       </c>
@@ -11213,12 +11212,12 @@
       </c>
     </row>
     <row r="19" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
       <c r="K19" t="s">
         <v>427</v>
       </c>
@@ -11227,172 +11226,172 @@
       </c>
     </row>
     <row r="20" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
     </row>
     <row r="21" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="41"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="41"/>
-      <c r="I21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
     </row>
     <row r="22" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
     </row>
     <row r="23" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
     </row>
     <row r="25" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
     </row>
     <row r="26" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
     </row>
     <row r="27" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
     </row>
     <row r="28" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
     </row>
     <row r="29" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
     </row>
     <row r="30" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
     </row>
     <row r="31" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
     </row>
     <row r="32" spans="4:12" x14ac:dyDescent="0.25">
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D37" s="41"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D39" s="41"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -15206,8 +15205,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:I193"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N141" sqref="N141"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D194" sqref="D194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -17289,7 +17288,7 @@
         <v>5.7692307692307696E-3</v>
       </c>
     </row>
-    <row r="103" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>193</v>
       </c>
@@ -17319,7 +17318,7 @@
         <v>5.9523809523809521E-3</v>
       </c>
     </row>
-    <row r="104" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
         <v>199</v>
       </c>
@@ -17373,7 +17372,7 @@
         <v>1.8867924528301886E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
         <v>231</v>
       </c>
@@ -17400,7 +17399,7 @@
         <v>2.553191489361702E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
         <v>250</v>
       </c>
@@ -17427,7 +17426,7 @@
         <v>2.8637770897832818E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
         <v>198</v>
       </c>
@@ -17454,7 +17453,7 @@
         <v>2.9017857142857144E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
         <v>232</v>
       </c>
@@ -17481,7 +17480,7 @@
         <v>3.1431334622823985E-2</v>
       </c>
     </row>
-    <row r="110" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
         <v>203</v>
       </c>
@@ -17508,7 +17507,7 @@
         <v>3.9560439560439559E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
         <v>237</v>
       </c>
@@ -17538,7 +17537,7 @@
         <v>4.1666666666666664E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
         <v>233</v>
       </c>
@@ -17565,7 +17564,7 @@
         <v>4.7619047619047616E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" s="4" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
         <v>205</v>
       </c>
@@ -17622,7 +17621,7 @@
         <v>5.1020408163265307E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
         <v>85</v>
       </c>
@@ -17649,7 +17648,7 @@
         <v>5.4421768707482991E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
         <v>247</v>
       </c>
@@ -17676,7 +17675,7 @@
         <v>6.0402684563758392E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" s="13" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" s="13" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="13" t="s">
         <v>238</v>
       </c>
@@ -17810,7 +17809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>214</v>
       </c>
@@ -17830,7 +17829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>215</v>
       </c>
@@ -17850,7 +17849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
         <v>201</v>
       </c>
@@ -18057,7 +18056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
         <v>252</v>
       </c>
@@ -18158,7 +18157,7 @@
         <v>7.926829268292683E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
         <v>240</v>
       </c>
@@ -18185,7 +18184,7 @@
         <v>9.1722595078299773E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
         <v>245</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>9.3537414965986401E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
         <v>216</v>
       </c>
@@ -18239,7 +18238,7 @@
         <v>9.4961240310077522E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" s="14" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" s="14" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="14" t="s">
         <v>207</v>
       </c>
@@ -18293,7 +18292,7 @@
         <v>0.10365853658536585</v>
       </c>
     </row>
-    <row r="144" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
         <v>244</v>
       </c>
@@ -18348,7 +18347,7 @@
         <v>0.11224489795918367</v>
       </c>
     </row>
-    <row r="146" spans="1:9" s="15" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" s="15" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="15" t="s">
         <v>202</v>
       </c>
@@ -18429,7 +18428,7 @@
         <v>0.12774122807017543</v>
       </c>
     </row>
-    <row r="149" spans="1:9" s="14" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" s="14" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
         <v>197</v>
       </c>
@@ -18459,7 +18458,7 @@
         <v>0.12814589665653495</v>
       </c>
     </row>
-    <row r="150" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
         <v>235</v>
       </c>
@@ -18514,7 +18513,7 @@
         <v>0.13419913419913421</v>
       </c>
     </row>
-    <row r="152" spans="1:9" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
         <v>234</v>
       </c>
@@ -18569,7 +18568,7 @@
         <v>0.14137931034482759</v>
       </c>
     </row>
-    <row r="154" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
         <v>246</v>
       </c>
@@ -18623,7 +18622,7 @@
         <v>0.15963302752293579</v>
       </c>
     </row>
-    <row r="156" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
         <v>248</v>
       </c>
@@ -18650,7 +18649,7 @@
         <v>0.17282608695652174</v>
       </c>
     </row>
-    <row r="157" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
         <v>209</v>
       </c>
@@ -18731,7 +18730,7 @@
         <v>0.18721461187214611</v>
       </c>
     </row>
-    <row r="160" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
         <v>249</v>
       </c>
@@ -18758,7 +18757,7 @@
         <v>0.19651223321186881</v>
       </c>
     </row>
-    <row r="161" spans="1:9" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" s="4" customFormat="1" ht="19.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
         <v>194</v>
       </c>
@@ -18788,7 +18787,7 @@
         <v>0.2070230607966457</v>
       </c>
     </row>
-    <row r="162" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
         <v>228</v>
       </c>
@@ -18875,7 +18874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166" s="8" t="s">
         <v>256</v>
       </c>
@@ -18935,7 +18934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" s="5" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" s="5" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>195</v>
       </c>
@@ -18965,7 +18964,7 @@
         <v>0.21695317131001779</v>
       </c>
     </row>
-    <row r="170" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
         <v>241</v>
       </c>
@@ -18992,7 +18991,7 @@
         <v>0.2557471264367816</v>
       </c>
     </row>
-    <row r="171" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
         <v>196</v>
       </c>
@@ -19019,7 +19018,7 @@
         <v>0.27282157676348545</v>
       </c>
     </row>
-    <row r="172" spans="1:9" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" s="5" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>200</v>
       </c>
@@ -19046,7 +19045,7 @@
         <v>0.29511278195488722</v>
       </c>
     </row>
-    <row r="173" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
         <v>239</v>
       </c>
@@ -19073,7 +19072,7 @@
         <v>0.31179138321995464</v>
       </c>
     </row>
-    <row r="174" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
         <v>229</v>
       </c>
@@ -19127,7 +19126,7 @@
         <v>0.34840425531914893</v>
       </c>
     </row>
-    <row r="176" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
         <v>206</v>
       </c>
@@ -19181,7 +19180,7 @@
         <v>0.72945205479452058</v>
       </c>
     </row>
-    <row r="178" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
         <v>230</v>
       </c>
@@ -19208,7 +19207,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="179" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="12" t="s">
         <v>208</v>
       </c>
@@ -19255,7 +19254,7 @@
       <c r="H180" s="12"/>
       <c r="I180" s="12"/>
     </row>
-    <row r="181" spans="1:9" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
         <v>204</v>
       </c>
@@ -19296,7 +19295,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" s="12" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" s="12" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="12" t="s">
         <v>236</v>
       </c>
@@ -19315,7 +19314,7 @@
       </c>
       <c r="I183" s="4"/>
     </row>
-    <row r="184" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="12" t="s">
         <v>242</v>
       </c>
@@ -19334,7 +19333,7 @@
       <c r="G184" s="12"/>
       <c r="H184" s="12"/>
     </row>
-    <row r="185" spans="1:9" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" s="4" customFormat="1" ht="15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="12" t="s">
         <v>243</v>
       </c>
@@ -19455,7 +19454,7 @@
   <autoFilter ref="A1:H189" xr:uid="{E571C789-F310-448A-A52C-243D869F471D}">
     <filterColumn colId="3">
       <filters>
-        <filter val="string-benchset"/>
+        <filter val="bench-pthread"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -19495,38 +19494,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:28" x14ac:dyDescent="0.25">
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
       <c r="H2" s="33"/>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="37" t="s">
         <v>454</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="O2" s="36" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="O2" s="37" t="s">
         <v>457</v>
       </c>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
       <c r="S2" s="33"/>
-      <c r="T2" s="36" t="s">
+      <c r="T2" s="37" t="s">
         <v>460</v>
       </c>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="Y2" s="36" t="s">
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="Y2" s="37" t="s">
         <v>459</v>
       </c>
-      <c r="Z2" s="36"/>
-      <c r="AA2" s="36"/>
-      <c r="AB2" s="36"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="37"/>
     </row>
     <row r="3" spans="2:28" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C3" s="31" t="s">
@@ -20167,7 +20166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F326F50-68D2-4CC0-85FE-70B4B208A78F}">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
@@ -20398,7 +20397,7 @@
         <v>1.8867925000000001E-2</v>
       </c>
       <c r="I9" s="21"/>
-      <c r="J9" s="42">
+      <c r="J9" s="35">
         <v>0</v>
       </c>
     </row>
@@ -20494,46 +20493,46 @@
       <c r="A17" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="36" t="s">
         <v>396</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
     </row>
     <row r="18" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="36" t="s">
         <v>398</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
     </row>
     <row r="19" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="36" t="s">
         <v>402</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
     </row>
     <row r="20" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -20670,7 +20669,7 @@
       <c r="C5" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="38" t="s">
         <v>439</v>
       </c>
     </row>
@@ -20684,7 +20683,7 @@
       <c r="C6" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="38"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -20696,7 +20695,7 @@
       <c r="C7" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="38"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -20708,7 +20707,7 @@
       <c r="C8" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="38"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -20720,7 +20719,7 @@
       <c r="C9" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="38"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -20732,7 +20731,7 @@
       <c r="C10" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -20744,7 +20743,7 @@
       <c r="C11" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -20756,7 +20755,7 @@
       <c r="C12" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -20768,7 +20767,7 @@
       <c r="C13" s="27" t="s">
         <v>434</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -20780,7 +20779,7 @@
       <c r="C14" s="27" t="s">
         <v>436</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -20792,7 +20791,7 @@
       <c r="C15" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -20804,7 +20803,7 @@
       <c r="C16" s="27" t="s">
         <v>438</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
@@ -20815,7 +20814,7 @@
       <c r="A19" t="s">
         <v>440</v>
       </c>
-      <c r="D19" s="38" t="s">
+      <c r="D19" s="39" t="s">
         <v>448</v>
       </c>
     </row>
@@ -20826,43 +20825,43 @@
       <c r="B20" s="30">
         <v>571734000</v>
       </c>
-      <c r="D20" s="38"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>442</v>
       </c>
-      <c r="D21" s="38"/>
+      <c r="D21" s="39"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>443</v>
       </c>
-      <c r="D22" s="38"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>444</v>
       </c>
-      <c r="D23" s="38"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>445</v>
       </c>
-      <c r="D24" s="38"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>446</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>447</v>
       </c>
-      <c r="D26" s="38"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
@@ -20909,99 +20908,99 @@
       <c r="A1" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="36"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="35"/>
+      <c r="B6" s="36"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" s="35"/>
+      <c r="B7" s="36"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="36"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="36"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -21033,7 +21032,7 @@
       <c r="A1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="36" t="s">
         <v>374</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -21044,19 +21043,19 @@
       <c r="A2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="35"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="36"/>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="3" t="s">
         <v>74</v>
       </c>
@@ -21065,8 +21064,8 @@
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35" t="s">
+      <c r="B5" s="36"/>
+      <c r="C5" s="36" t="s">
         <v>73</v>
       </c>
     </row>
@@ -21074,29 +21073,29 @@
       <c r="A6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
     </row>
     <row r="8" spans="1:3" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35" t="s">
+      <c r="B9" s="36"/>
+      <c r="C9" s="36" t="s">
         <v>75</v>
       </c>
     </row>
@@ -21104,21 +21103,21 @@
       <c r="A10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:3" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
     </row>
     <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="3" t="s">
         <v>76</v>
       </c>
@@ -21127,7 +21126,7 @@
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="3" t="s">
         <v>77</v>
       </c>
@@ -21136,19 +21135,19 @@
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="36"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="35"/>
+      <c r="B15" s="36"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B16" s="35"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="3" t="s">
         <v>79</v>
       </c>
